--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>8523.275791321934</v>
+        <v>8970.95733192748</v>
       </c>
       <c r="R2">
-        <v>8523.275791321934</v>
+        <v>35883.82932770992</v>
       </c>
       <c r="S2">
-        <v>0.1160746011246746</v>
+        <v>0.1153038904432474</v>
       </c>
       <c r="T2">
-        <v>0.1160746011246746</v>
+        <v>0.08055326494290668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>5767.976020847584</v>
+        <v>6473.735503123684</v>
       </c>
       <c r="R3">
-        <v>5767.976020847584</v>
+        <v>38842.4130187421</v>
       </c>
       <c r="S3">
-        <v>0.07855143166882453</v>
+        <v>0.08320704932506399</v>
       </c>
       <c r="T3">
-        <v>0.07855143166882453</v>
+        <v>0.087194796250588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>4351.524555511453</v>
+        <v>4607.760094255109</v>
       </c>
       <c r="R4">
-        <v>4351.524555511453</v>
+        <v>27646.56056553065</v>
       </c>
       <c r="S4">
-        <v>0.05926142593901438</v>
+        <v>0.05922363081651243</v>
       </c>
       <c r="T4">
-        <v>0.05926142593901438</v>
+        <v>0.06206195826139366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>4091.517868504169</v>
+        <v>4340.869669179334</v>
       </c>
       <c r="R5">
-        <v>4091.517868504169</v>
+        <v>26045.218015076</v>
       </c>
       <c r="S5">
-        <v>0.05572051359227947</v>
+        <v>0.05579328295121087</v>
       </c>
       <c r="T5">
-        <v>0.05572051359227947</v>
+        <v>0.05846720895097063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H6">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I6">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J6">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>6011.571415606554</v>
+        <v>6635.570594418201</v>
       </c>
       <c r="R6">
-        <v>6011.571415606554</v>
+        <v>39813.42356650921</v>
       </c>
       <c r="S6">
-        <v>0.08186884612011379</v>
+        <v>0.08528711892589519</v>
       </c>
       <c r="T6">
-        <v>0.08186884612011379</v>
+        <v>0.08937455441414162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H7">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I7">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J7">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>7228.082955316141</v>
+        <v>7626.272251328437</v>
       </c>
       <c r="R7">
-        <v>7228.082955316141</v>
+        <v>30505.08900531375</v>
       </c>
       <c r="S7">
-        <v>0.09843596129889569</v>
+        <v>0.09802062674270007</v>
       </c>
       <c r="T7">
-        <v>0.09843596129889569</v>
+        <v>0.06847888206999257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>895.1622433525876</v>
+        <v>946.2623616394069</v>
       </c>
       <c r="R8">
-        <v>895.1622433525876</v>
+        <v>5677.574169836442</v>
       </c>
       <c r="S8">
-        <v>0.01219080584542543</v>
+        <v>0.01216232868355379</v>
       </c>
       <c r="T8">
-        <v>0.01219080584542543</v>
+        <v>0.01274521546067742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>605.7852028773841</v>
+        <v>682.8537935425119</v>
       </c>
       <c r="R9">
-        <v>605.7852028773841</v>
+        <v>6145.684141882607</v>
       </c>
       <c r="S9">
-        <v>0.008249912065829869</v>
+        <v>0.008776733194255948</v>
       </c>
       <c r="T9">
-        <v>0.008249912065829869</v>
+        <v>0.01379604496541852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J10">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>457.0215230019386</v>
+        <v>486.029504692878</v>
       </c>
       <c r="R10">
-        <v>457.0215230019386</v>
+        <v>4374.265542235902</v>
       </c>
       <c r="S10">
-        <v>0.006223967437713717</v>
+        <v>0.006246946751362214</v>
       </c>
       <c r="T10">
-        <v>0.006223967437713717</v>
+        <v>0.009819503039555991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J11">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>429.7141619676882</v>
+        <v>457.8777306305566</v>
       </c>
       <c r="R11">
-        <v>429.7141619676882</v>
+        <v>4120.89957567501</v>
       </c>
       <c r="S11">
-        <v>0.005852080956808646</v>
+        <v>0.005885111447485284</v>
       </c>
       <c r="T11">
-        <v>0.005852080956808646</v>
+        <v>0.00925073832814503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H12">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J12">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>631.3689579243364</v>
+        <v>699.9242632837359</v>
       </c>
       <c r="R12">
-        <v>631.3689579243364</v>
+        <v>6299.318369553623</v>
       </c>
       <c r="S12">
-        <v>0.008598325543822678</v>
+        <v>0.008996140276469096</v>
       </c>
       <c r="T12">
-        <v>0.008598325543822678</v>
+        <v>0.0141409284095142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H13">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J13">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>759.1338250496611</v>
+        <v>804.424112615483</v>
       </c>
       <c r="R13">
-        <v>759.1338250496611</v>
+        <v>4826.544675692898</v>
       </c>
       <c r="S13">
-        <v>0.01033829692952144</v>
+        <v>0.01033927888842087</v>
       </c>
       <c r="T13">
-        <v>0.01033829692952144</v>
+        <v>0.01083479492863473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H14">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I14">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J14">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>3071.318799388189</v>
+        <v>36.96476812247217</v>
       </c>
       <c r="R14">
-        <v>3071.318799388189</v>
+        <v>221.788608734833</v>
       </c>
       <c r="S14">
-        <v>0.04182688831079186</v>
+        <v>0.0004751088892915079</v>
       </c>
       <c r="T14">
-        <v>0.04182688831079186</v>
+        <v>0.0004978787630934219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H15">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I15">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J15">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>2078.460631918832</v>
+        <v>26.67498271422133</v>
       </c>
       <c r="R15">
-        <v>2078.460631918832</v>
+        <v>240.074844427992</v>
       </c>
       <c r="S15">
-        <v>0.02830560628449398</v>
+        <v>0.0003428540757305386</v>
       </c>
       <c r="T15">
-        <v>0.02830560628449398</v>
+        <v>0.0005389283393565102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H16">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I16">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J16">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>1568.049597427001</v>
+        <v>18.986243847347</v>
       </c>
       <c r="R16">
-        <v>1568.049597427001</v>
+        <v>170.876194626123</v>
       </c>
       <c r="S16">
-        <v>0.02135455146838754</v>
+        <v>0.0002440305643537059</v>
       </c>
       <c r="T16">
-        <v>0.02135455146838754</v>
+        <v>0.000383588809668219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H17">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I17">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J17">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>1474.357518779824</v>
+        <v>17.88652368237389</v>
       </c>
       <c r="R17">
-        <v>1474.357518779824</v>
+        <v>160.978713141365</v>
       </c>
       <c r="S17">
-        <v>0.02007860183073936</v>
+        <v>0.0002298958395156996</v>
       </c>
       <c r="T17">
-        <v>0.02007860183073936</v>
+        <v>0.0003613705998715973</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H18">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I18">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J18">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>2166.238985416364</v>
+        <v>27.34182309729733</v>
       </c>
       <c r="R18">
-        <v>2166.238985416364</v>
+        <v>246.076407875676</v>
       </c>
       <c r="S18">
-        <v>0.02950101959963986</v>
+        <v>0.0003514249882461606</v>
       </c>
       <c r="T18">
-        <v>0.02950101959963986</v>
+        <v>0.0005524008571878117</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H19">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I19">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J19">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>2604.60269123319</v>
+        <v>31.42400247584617</v>
       </c>
       <c r="R19">
-        <v>2604.60269123319</v>
+        <v>188.544014855077</v>
       </c>
       <c r="S19">
-        <v>0.03547089474459637</v>
+        <v>0.0004038933198208407</v>
       </c>
       <c r="T19">
-        <v>0.03547089474459637</v>
+        <v>0.0004232501454434276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H20">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I20">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J20">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>4907.780327101239</v>
+        <v>12.05243239143633</v>
       </c>
       <c r="R20">
-        <v>4907.780327101239</v>
+        <v>72.314594348618</v>
       </c>
       <c r="S20">
-        <v>0.06683681929614618</v>
+        <v>0.0001549101497886887</v>
       </c>
       <c r="T20">
-        <v>0.06683681929614618</v>
+        <v>0.0001623343101039882</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H21">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I21">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J21">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>3321.253463501617</v>
+        <v>8.697428444314665</v>
       </c>
       <c r="R21">
-        <v>3321.253463501617</v>
+        <v>78.276855998832</v>
       </c>
       <c r="S21">
-        <v>0.04523063437679779</v>
+        <v>0.0001117882182888248</v>
       </c>
       <c r="T21">
-        <v>0.04523063437679779</v>
+        <v>0.0001757186018968862</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H22">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I22">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J22">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>2505.647726215929</v>
+        <v>6.190500629662001</v>
       </c>
       <c r="R22">
-        <v>2505.647726215929</v>
+        <v>55.714505666958</v>
       </c>
       <c r="S22">
-        <v>0.0341232722606003</v>
+        <v>7.956662594426122E-05</v>
       </c>
       <c r="T22">
-        <v>0.0341232722606003</v>
+        <v>0.0001250698551474791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H23">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I23">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J23">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>2355.933492551409</v>
+        <v>5.831934794921111</v>
       </c>
       <c r="R23">
-        <v>2355.933492551409</v>
+        <v>52.48741315429</v>
       </c>
       <c r="S23">
-        <v>0.03208438247447029</v>
+        <v>7.495797224143818E-05</v>
       </c>
       <c r="T23">
-        <v>0.03208438247447029</v>
+        <v>0.0001178255659219846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H24">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I24">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J24">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>3461.517924659587</v>
+        <v>8.914853009410665</v>
       </c>
       <c r="R24">
-        <v>3461.517924659587</v>
+        <v>80.233677084696</v>
       </c>
       <c r="S24">
-        <v>0.0471408320260931</v>
+        <v>0.0001145827804861364</v>
       </c>
       <c r="T24">
-        <v>0.0471408320260931</v>
+        <v>0.0001801113417557213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.219698</v>
+      </c>
+      <c r="I25">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J25">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>10.24585529804033</v>
+      </c>
+      <c r="R25">
+        <v>61.475131788242</v>
+      </c>
+      <c r="S25">
+        <v>0.0001316901789932802</v>
+      </c>
+      <c r="T25">
+        <v>0.0001380015085099726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H26">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J26">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>3109.068934996781</v>
+      </c>
+      <c r="R26">
+        <v>18654.41360998069</v>
+      </c>
+      <c r="S26">
+        <v>0.03996092396800519</v>
+      </c>
+      <c r="T26">
+        <v>0.04187607482345692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H27">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J27">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>2243.605582039158</v>
+      </c>
+      <c r="R27">
+        <v>20192.45023835242</v>
+      </c>
+      <c r="S27">
+        <v>0.02883710652692609</v>
+      </c>
+      <c r="T27">
+        <v>0.04532871280380343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H28">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J28">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>1596.913600065956</v>
+      </c>
+      <c r="R28">
+        <v>14372.22240059361</v>
+      </c>
+      <c r="S28">
+        <v>0.02052516180564366</v>
+      </c>
+      <c r="T28">
+        <v>0.03226326344048746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H29">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J29">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>1504.417258934336</v>
+      </c>
+      <c r="R29">
+        <v>13539.75533040902</v>
+      </c>
+      <c r="S29">
+        <v>0.01933630451989062</v>
+      </c>
+      <c r="T29">
+        <v>0.03039451248170834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H30">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J30">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>2299.692846343205</v>
+      </c>
+      <c r="R30">
+        <v>20697.23561708885</v>
+      </c>
+      <c r="S30">
+        <v>0.02955799723449407</v>
+      </c>
+      <c r="T30">
+        <v>0.046461872533812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H31">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J31">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>2643.040789197333</v>
+      </c>
+      <c r="R31">
+        <v>15858.244735184</v>
+      </c>
+      <c r="S31">
+        <v>0.0339710550745831</v>
+      </c>
+      <c r="T31">
+        <v>0.03559913792969366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.264707</v>
+      </c>
+      <c r="H32">
+        <v>60.529414</v>
+      </c>
+      <c r="I32">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J32">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>4980.882870542244</v>
+      </c>
+      <c r="R32">
+        <v>19923.53148216898</v>
+      </c>
+      <c r="S32">
+        <v>0.06401938517438635</v>
+      </c>
+      <c r="T32">
+        <v>0.04472503465069634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.264707</v>
+      </c>
+      <c r="H33">
+        <v>60.529414</v>
+      </c>
+      <c r="I33">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J33">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>3594.367588971896</v>
+      </c>
+      <c r="R33">
+        <v>21566.20553383138</v>
+      </c>
+      <c r="S33">
+        <v>0.04619847708076527</v>
+      </c>
+      <c r="T33">
+        <v>0.04841256634888715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.264707</v>
+      </c>
+      <c r="H34">
+        <v>60.529414</v>
+      </c>
+      <c r="I34">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J34">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>2558.334910741599</v>
+      </c>
+      <c r="R34">
+        <v>15350.00946444959</v>
+      </c>
+      <c r="S34">
+        <v>0.03288232875831821</v>
+      </c>
+      <c r="T34">
+        <v>0.03445823376244571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>4161.996420070604</v>
-      </c>
-      <c r="R25">
-        <v>4161.996420070604</v>
-      </c>
-      <c r="S25">
-        <v>0.05668032880431897</v>
-      </c>
-      <c r="T25">
-        <v>0.05668032880431897</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.264707</v>
+      </c>
+      <c r="H35">
+        <v>60.529414</v>
+      </c>
+      <c r="I35">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J35">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>2410.151177681078</v>
+      </c>
+      <c r="R35">
+        <v>14460.90706608647</v>
+      </c>
+      <c r="S35">
+        <v>0.03097772033247358</v>
+      </c>
+      <c r="T35">
+        <v>0.03246234585420029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.264707</v>
+      </c>
+      <c r="H36">
+        <v>60.529414</v>
+      </c>
+      <c r="I36">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J36">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>3684.222172407788</v>
+      </c>
+      <c r="R36">
+        <v>22105.33303444673</v>
+      </c>
+      <c r="S36">
+        <v>0.04735337980306923</v>
+      </c>
+      <c r="T36">
+        <v>0.04962281846547326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.264707</v>
+      </c>
+      <c r="H37">
+        <v>60.529414</v>
+      </c>
+      <c r="I37">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J37">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>4234.282631971002</v>
+      </c>
+      <c r="R37">
+        <v>16937.13052788401</v>
+      </c>
+      <c r="S37">
+        <v>0.05442331767256661</v>
+      </c>
+      <c r="T37">
+        <v>0.03802105818543934</v>
       </c>
     </row>
   </sheetData>
